--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1752473.797681387</v>
+        <v>1752473.797681388</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1517659.706910645</v>
+        <v>1000928.212471163</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>211.0025011558363</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>127.8819313525579</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>168.7756050755994</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>54.70191565295227</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>281.8472002154052</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>76.77496962571264</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>80.88877949312959</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>49.38957925603669</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>16.222084259942</v>
       </c>
       <c r="H8" t="n">
-        <v>299.907720986956</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1184,13 +1184,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>72.65793777463487</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>44.66861782025053</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0.7644211441603533</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185922</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.3062600431766</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>50.75136046586777</v>
+        <v>17.96449086431758</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>58.4016882597743</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>33.35146980185877</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274077</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>155.8385935972305</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>14.73664328357051</v>
+        <v>164.3650309254209</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>64.34190763938432</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>157.2425576766696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>105.9852024927117</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>15.0222892215842</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>143.5307186024632</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>8.070639042239931</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>209.4552226741776</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>178.0344873527949</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>209.4552226741776</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274077</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>68.41712019064346</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2512.946733515829</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2075.803581887074</v>
+        <v>1297.230130518035</v>
       </c>
       <c r="C5" t="n">
-        <v>1706.841064946662</v>
+        <v>928.267613577623</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>928.267613577623</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>542.4793609793787</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>131.4934561897712</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1683.829970582156</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.3053441250782</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>181.3053441250782</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>181.3053441250782</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>181.3053441250782</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>181.3053441250782</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>181.3053441250782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>181.3053441250782</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.3053441250782</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1662.48357412947</v>
+        <v>1689.203741822953</v>
       </c>
       <c r="C8" t="n">
-        <v>1293.521057189058</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>935.2553585823075</v>
+        <v>961.9755262757906</v>
       </c>
       <c r="E8" t="n">
-        <v>935.2553585823075</v>
+        <v>961.9755262757906</v>
       </c>
       <c r="F8" t="n">
-        <v>524.2694537927</v>
+        <v>550.9896214861831</v>
       </c>
       <c r="G8" t="n">
-        <v>510.3460497312909</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.48357412947</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>426.2840617486069</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V10" t="n">
-        <v>426.2840617486069</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W10" t="n">
-        <v>426.2840617486069</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X10" t="n">
-        <v>426.2840617486069</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>426.2840617486069</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704857</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>618.8589595388348</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1357.551052309181</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.071707946799</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2227.840212610278</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2432.862693392487</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181194</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201021</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>388.8958536704857</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L15" t="n">
-        <v>618.8589595388348</v>
+        <v>738.0704661731475</v>
       </c>
       <c r="M15" t="n">
-        <v>926.1790928187966</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022017</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324578</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954972</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5510,37 +5510,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.498159098442</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>2745.388427942954</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>3359.285497699843</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M18" t="n">
-        <v>3666.605630979805</v>
+        <v>1719.061395177695</v>
       </c>
       <c r="N18" t="n">
-        <v>3796.69111987887</v>
+        <v>2048.924022841727</v>
       </c>
       <c r="O18" t="n">
-        <v>4045.444533962832</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>579.0685056491545</v>
+        <v>692.3809108364824</v>
       </c>
       <c r="C19" t="n">
-        <v>410.1323227212476</v>
+        <v>692.3809108364824</v>
       </c>
       <c r="D19" t="n">
-        <v>260.0156833089119</v>
+        <v>692.3809108364824</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5704,19 +5704,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229244</v>
+        <v>692.3809108364824</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.7169704793943</v>
+        <v>692.3809108364824</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,28 +5771,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095317</v>
+        <v>416.8916895618678</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.474758001781</v>
+        <v>416.8916895618678</v>
       </c>
       <c r="M21" t="n">
-        <v>3478.810077531482</v>
+        <v>724.2118228418294</v>
       </c>
       <c r="N21" t="n">
-        <v>4081.182609697672</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>4360.722674916369</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.9054447954967</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C22" t="n">
-        <v>130.9054447954967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>130.9054447954967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>130.9054447954967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>130.9054447954967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324574</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954967</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>130.9054447954967</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.9054447954967</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5969,34 +5969,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>2626.17692130864</v>
       </c>
       <c r="L24" t="n">
-        <v>877.4353633695368</v>
+        <v>2856.140027176989</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>3624.508173569451</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>4360.063122803649</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>4608.816536887612</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>4791.460014500963</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.9054447954965</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C25" t="n">
-        <v>130.9054447954965</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D25" t="n">
-        <v>130.9054447954965</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E25" t="n">
-        <v>130.9054447954965</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F25" t="n">
-        <v>130.9054447954965</v>
+        <v>254.6298122655692</v>
       </c>
       <c r="G25" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X25" t="n">
-        <v>130.9054447954965</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.9054447954965</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028583</v>
@@ -6254,22 +6254,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.325632214049</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M27" t="n">
-        <v>1595.645765494011</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N27" t="n">
-        <v>1595.645765494011</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1890.369665081593</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.670286817341</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>3774.981524342492</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="D28" t="n">
-        <v>245.1301850426789</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>3606.045341414585</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.03077229167</v>
+        <v>4694.82928925124</v>
       </c>
       <c r="W28" t="n">
-        <v>1194.613602254709</v>
+        <v>4405.412119214279</v>
       </c>
       <c r="X28" t="n">
-        <v>966.6240513566914</v>
+        <v>4177.422568316262</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131613</v>
+        <v>3956.629989172732</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,16 +6479,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>2730.782467119152</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>3051.117786648854</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>3796.691119878869</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>4503.13917884751</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>4684.78764367775</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>246.2867756623457</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>493.0519035688097</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1261.420049961271</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>2065.831628225422</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>564.1830073829216</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2468244550147</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="D34" t="n">
-        <v>245.1301850426789</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4442.803699398022</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>4153.67506061158</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>3898.990572405693</v>
       </c>
       <c r="W34" t="n">
-        <v>1194.613602254709</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="X34" t="n">
-        <v>966.6240513566914</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="Y34" t="n">
-        <v>745.8314722131613</v>
+        <v>3609.573402368732</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,7 +6953,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7017,13 +7017,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>327.180197328635</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M36" t="n">
-        <v>1050.107891292278</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N36" t="n">
         <v>1854.519469556429</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>967.1285778917498</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>967.1285778917498</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1490.764109909175</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>1201.635471122733</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V37" t="n">
-        <v>946.9509829168464</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W37" t="n">
-        <v>657.5338128798858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X37" t="n">
-        <v>429.5442619818684</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7516828383384</v>
+        <v>967.1285778917498</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7217,7 +7217,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>2911.709630095316</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>2911.709630095316</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>3219.029763375278</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N39" t="n">
-        <v>3548.89239103931</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O39" t="n">
-        <v>4045.444533962831</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698578</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7369,13 +7369,13 @@
         <v>420.3226148324571</v>
       </c>
       <c r="W40" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X40" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.7516828383384</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="41">
@@ -7412,13 +7412,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7427,7 +7427,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>103.2823543233166</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>514.1726231678292</v>
       </c>
       <c r="L42" t="n">
-        <v>877.4353633695368</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="M42" t="n">
-        <v>1624.247116409446</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="N42" t="n">
-        <v>1954.109744073479</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>208.7516828383384</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>208.7516828383384</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>208.7516828383384</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.7516828383384</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>2618.611087055021</v>
       </c>
       <c r="M45" t="n">
-        <v>1595.645765494011</v>
+        <v>3386.979233447482</v>
       </c>
       <c r="N45" t="n">
-        <v>1595.645765494011</v>
+        <v>4191.390811711633</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.642871543091</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="P45" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.3840174432676</v>
+        <v>4105.281465137645</v>
       </c>
       <c r="C46" t="n">
-        <v>155.4478345153607</v>
+        <v>4105.281465137645</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>4105.281465137645</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735073</v>
+        <v>4105.281465137645</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>104.6241510367958</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,16 +9249,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>124.6622522057418</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>3.409358277928106</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>419.9098036020024</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,25 +10428,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>369.9060195594317</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>219.2041188937615</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>219.6535765963465</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>251.3732221796676</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.0576765518768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871779</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891823</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>95.68260218070139</v>
+        <v>128.4694717822516</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>77.06777566241321</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24658,7 +24658,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>237.4010000402575</v>
+        <v>87.77261239840709</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>133.5789023442189</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>61.34209567542518</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24932,7 +24932,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>115.5623585656776</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>271.5007091150068</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>5.08475441574916</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>213.4769220161493</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>1.797492829142385</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,22 +25831,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>78.01684245592571</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852503</v>
@@ -26338,19 +26338,19 @@
         <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852503</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,31 +26424,31 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758692</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758693</v>
@@ -26457,7 +26457,7 @@
         <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,10 +26494,10 @@
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26509,7 +26509,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400032</v>
+        <v>-319261.0345400031</v>
       </c>
       <c r="C6" t="n">
-        <v>270706.8446745414</v>
+        <v>270706.8446745413</v>
       </c>
       <c r="D6" t="n">
-        <v>270706.8446745414</v>
+        <v>270706.8446745413</v>
       </c>
       <c r="E6" t="n">
-        <v>-148700.2844309388</v>
+        <v>-148700.2844309376</v>
       </c>
       <c r="F6" t="n">
-        <v>376459.7520459577</v>
+        <v>376459.7520459581</v>
       </c>
       <c r="G6" t="n">
-        <v>376459.752045958</v>
+        <v>376459.7520459581</v>
       </c>
       <c r="H6" t="n">
         <v>376459.7520459578</v>
@@ -26546,19 +26546,19 @@
         <v>200036.5328533649</v>
       </c>
       <c r="K6" t="n">
-        <v>376459.752045958</v>
+        <v>376459.7520459578</v>
       </c>
       <c r="L6" t="n">
         <v>376459.7520459579</v>
       </c>
       <c r="M6" t="n">
-        <v>241658.7368121204</v>
+        <v>241658.7368121209</v>
       </c>
       <c r="N6" t="n">
         <v>376459.7520459579</v>
       </c>
       <c r="O6" t="n">
-        <v>376459.7520459579</v>
+        <v>376459.752045958</v>
       </c>
       <c r="P6" t="n">
         <v>376459.7520459578</v>
@@ -26744,16 +26744,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26793,10 +26793,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>154.2703906151712</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>221.3590373648551</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>117.5062691663784</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>171.0077397360849</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>72.83584140527773</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>337.0092003950824</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>75.28210934866556</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,16 +27825,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>236.892294985941</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>397.562085760853</v>
       </c>
       <c r="H8" t="n">
-        <v>24.0150517774012</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>139.487601175384</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>207.4690255035775</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31127,7 +31127,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,7 +31145,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>111.7343803072865</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,10 +31382,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>422.5825992329739</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>346.0089971370918</v>
+        <v>274.5684716790597</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>262.7411958197624</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,19 +32549,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>196.2798364078228</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>260.456440937951</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,28 +32789,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>394.9841349460407</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -33023,13 +33023,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33038,13 +33038,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>357.2605887178446</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>144.9582424701699</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33263,19 +33263,19 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33509,16 +33509,16 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>410.8654302134177</v>
+        <v>234.7570492033809</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>406.6589640746884</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33971,28 +33971,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>168.9387261055273</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34208,31 +34208,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>132.9641548111422</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>430.7842762729369</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34366,7 +34366,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>54.6967899881127</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>746.1536290609555</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>192.6371838218699</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>214.6672850537585</v>
+        <v>622.5691339392799</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>435.0866292562079</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3994837364291</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>322.9036344460424</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>608.4571031981712</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>313.8337353283943</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>742.984797206261</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>214.6643442734002</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>215.0537561199975</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>753.1043770000152</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>268.2691857689732</v>
+        <v>486.0231240356659</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>730.22999390267</v>
+        <v>680.3303966098979</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
         <v>251.2660748322851</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>492.5097559335089</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>501.5678211348696</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>6.126528144475465</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>754.3553061009185</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>286.9827555116977</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>502.0172788374546</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1752473.797681388</v>
+        <v>1828003.467346192</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1000928.212471163</v>
+        <v>1675377.472924252</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>63.10802839794265</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>127.8819313525579</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>127.007578794843</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>54.70191565295227</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>76.77496962571264</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>121.1693910461994</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>49.38957925603669</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>153.0555388225932</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>16.222084259942</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>41.55082827927919</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>57.37568956786215</v>
       </c>
       <c r="S10" t="n">
-        <v>72.65793777463487</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1585,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7644211441603533</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431766</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>43.72170015350625</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>17.96449086431758</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>58.4016882597743</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>122.313709559931</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>15.74955790720909</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>155.8385935972305</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>164.3650309254209</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>132.5906791667248</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>64.34190763938432</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3190,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3240,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>105.9852024927117</v>
+        <v>213.4998989363463</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>143.5307186024632</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3554,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>33.35146980185857</v>
+        <v>102.7937592389938</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>178.0344873527949</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>43.53776261087656</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3916,7 +3918,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274077</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>68.41712019064346</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>155.8385935972313</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4358,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2512.946733515829</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.480975254749</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="3">
@@ -4389,40 +4391,40 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4513,25 +4515,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>570.4215814289018</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>570.4215814289018</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="V4" t="n">
-        <v>154.8539665087374</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="W4" t="n">
-        <v>154.8539665087374</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1297.230130518035</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>928.267613577623</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>928.267613577623</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>542.4793609793787</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>131.4934561897712</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2343.549589573795</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X5" t="n">
-        <v>1683.829970582156</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1683.829970582156</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C7" t="n">
         <v>222.942782082032</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>450.9323329800494</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>450.9323329800494</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>450.9323329800494</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>573.5274298401787</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822953</v>
+        <v>1310.651480925463</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.241224882541</v>
+        <v>1310.651480925463</v>
       </c>
       <c r="D8" t="n">
-        <v>961.9755262757906</v>
+        <v>1310.651480925463</v>
       </c>
       <c r="E8" t="n">
-        <v>961.9755262757906</v>
+        <v>924.8632283272186</v>
       </c>
       <c r="F8" t="n">
-        <v>550.9896214861831</v>
+        <v>513.8773235376111</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>95.91351543579799</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1697.251320989585</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>1697.251320989585</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4886,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>415.489254012808</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>415.489254012808</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>415.489254012808</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>670.1737422186949</v>
       </c>
       <c r="S10" t="n">
-        <v>625.3202087220412</v>
+        <v>670.1737422186949</v>
       </c>
       <c r="T10" t="n">
-        <v>625.3202087220412</v>
+        <v>670.1737422186949</v>
       </c>
       <c r="U10" t="n">
-        <v>625.3202087220412</v>
+        <v>670.1737422186949</v>
       </c>
       <c r="V10" t="n">
-        <v>625.3202087220412</v>
+        <v>415.489254012808</v>
       </c>
       <c r="W10" t="n">
-        <v>625.3202087220412</v>
+        <v>415.489254012808</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>415.489254012808</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>415.489254012808</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="O12" t="n">
-        <v>2227.840212610278</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2432.862693392487</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247856</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383438</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>674.2349604684848</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>674.2349604684848</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5297,31 +5299,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047984</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="L15" t="n">
-        <v>738.0704661731475</v>
+        <v>221.9293220866562</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.438612565609</v>
+        <v>542.2646416163579</v>
       </c>
       <c r="N15" t="n">
-        <v>2122.782055165496</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5431,25 +5433,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,19 +5527,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.325632214049</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1719.061395177695</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>2048.924022841727</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2328.464088060424</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>692.3809108364824</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>692.3809108364824</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>692.3809108364824</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.78763177146</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344997</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X19" t="n">
-        <v>692.3809108364824</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y19" t="n">
-        <v>692.3809108364824</v>
+        <v>310.3166078765829</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,19 +5752,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5795,7 +5797,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>416.8916895618678</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>416.8916895618678</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>724.2118228418294</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3840174432676</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1375.367068982215</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1086.238430195773</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>831.5539419898857</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735073</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5992,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2626.17692130864</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>2856.140027176989</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M24" t="n">
-        <v>3624.508173569451</v>
+        <v>1442.796708849622</v>
       </c>
       <c r="N24" t="n">
-        <v>4360.063122803649</v>
+        <v>1772.659336513655</v>
       </c>
       <c r="O24" t="n">
-        <v>4608.816536887612</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>4791.460014500963</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.4856756861153</v>
+        <v>3941.006808105545</v>
       </c>
       <c r="C25" t="n">
-        <v>699.5494927582084</v>
+        <v>3772.070625177638</v>
       </c>
       <c r="D25" t="n">
-        <v>549.4328533458727</v>
+        <v>3621.953985765302</v>
       </c>
       <c r="E25" t="n">
-        <v>401.5197597634796</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="F25" t="n">
-        <v>254.6298122655692</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.916270557902</v>
+        <v>4571.437402977332</v>
       </c>
       <c r="X25" t="n">
-        <v>1270.926719659885</v>
+        <v>4343.447852079315</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.134140516355</v>
+        <v>4122.655272935785</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6254,22 +6256,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181232</v>
+        <v>436.8967109626377</v>
       </c>
       <c r="L27" t="n">
-        <v>452.5377573864724</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M27" t="n">
-        <v>1220.905903778934</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
-        <v>1220.905903778934</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1890.369665081593</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2410.670286817341</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3774.981524342492</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014291</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014291</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4694.82928925124</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4405.412119214279</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4177.422568316262</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>3956.629989172732</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>2500.819361250803</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>2730.782467119152</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>3051.117786648854</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>3796.691119878869</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O30" t="n">
-        <v>4045.444533962831</v>
+        <v>2386.862770609477</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4503.13917884751</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C31" t="n">
-        <v>4334.202995919603</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.086356507268</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924875</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426964</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4684.78764367775</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4684.78764367775</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4684.78764367775</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>4684.78764367775</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W31" t="n">
-        <v>4684.78764367775</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X31" t="n">
-        <v>4684.78764367775</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y31" t="n">
-        <v>4684.78764367775</v>
+        <v>1275.130855347408</v>
       </c>
     </row>
     <row r="32">
@@ -6695,19 +6697,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6719,10 +6721,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N33" t="n">
-        <v>1890.372576454149</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O33" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3609.573402368732</v>
+        <v>4334.202995919602</v>
       </c>
       <c r="C34" t="n">
-        <v>3609.573402368732</v>
+        <v>4334.202995919602</v>
       </c>
       <c r="D34" t="n">
-        <v>3609.573402368732</v>
+        <v>4184.086356507267</v>
       </c>
       <c r="E34" t="n">
-        <v>3609.573402368732</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368732</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368732</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T34" t="n">
-        <v>4442.803699398022</v>
+        <v>4334.202995919602</v>
       </c>
       <c r="U34" t="n">
-        <v>4153.67506061158</v>
+        <v>4334.202995919602</v>
       </c>
       <c r="V34" t="n">
-        <v>3898.990572405693</v>
+        <v>4334.202995919602</v>
       </c>
       <c r="W34" t="n">
-        <v>3609.573402368732</v>
+        <v>4334.202995919602</v>
       </c>
       <c r="X34" t="n">
-        <v>3609.573402368732</v>
+        <v>4334.202995919602</v>
       </c>
       <c r="Y34" t="n">
-        <v>3609.573402368732</v>
+        <v>4334.202995919602</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,43 +6925,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5746515181232</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L36" t="n">
-        <v>836.4717212750119</v>
+        <v>646.7193686662754</v>
       </c>
       <c r="M36" t="n">
-        <v>1509.998813918811</v>
+        <v>967.0546881959772</v>
       </c>
       <c r="N36" t="n">
-        <v>1854.519469556429</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.272883640391</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>967.1285778917498</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>967.1285778917498</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>1187.92115703528</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>1187.92115703528</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>1187.92115703528</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>967.1285778917498</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7172,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7208,13 +7210,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1609.589088435861</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1954.109744073479</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954965</v>
+        <v>688.5786845598166</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954965</v>
+        <v>519.6425016319097</v>
       </c>
       <c r="D40" t="n">
-        <v>130.9054447954965</v>
+        <v>519.6425016319097</v>
       </c>
       <c r="E40" t="n">
-        <v>130.9054447954965</v>
+        <v>519.6425016319097</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9054447954965</v>
+        <v>519.6425016319097</v>
       </c>
       <c r="G40" t="n">
-        <v>130.9054447954965</v>
+        <v>351.4671799517303</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9054447954965</v>
+        <v>201.0491714996735</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324571</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954965</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954965</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954965</v>
+        <v>688.5786845598166</v>
       </c>
     </row>
     <row r="41">
@@ -7409,25 +7411,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>103.2823543233166</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>514.1726231678292</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L42" t="n">
-        <v>1128.069692924718</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.069692924718</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.666285013068</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7603,16 +7605,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.499100520942</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y43" t="n">
-        <v>1209.499100520942</v>
+        <v>1016.242231453998</v>
       </c>
     </row>
     <row r="44">
@@ -7628,22 +7630,22 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823786</v>
@@ -7655,28 +7657,28 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690732</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409605</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748354</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742898</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769783</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373968</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805656</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.49815909844</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>2334.49815909844</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K45" t="n">
-        <v>2334.49815909844</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L45" t="n">
-        <v>2618.611087055021</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M45" t="n">
-        <v>3386.979233447482</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N45" t="n">
-        <v>4191.390811711633</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O45" t="n">
-        <v>4860.854573014291</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P45" t="n">
-        <v>4860.854573014291</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098066</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021844</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641231</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409488</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681287</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475754</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.9276637108</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4105.281465137645</v>
+        <v>4073.011257337222</v>
       </c>
       <c r="C46" t="n">
-        <v>4105.281465137645</v>
+        <v>3904.075074409315</v>
       </c>
       <c r="D46" t="n">
-        <v>4105.281465137645</v>
+        <v>3753.958434996979</v>
       </c>
       <c r="E46" t="n">
-        <v>4036.173262924874</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="F46" t="n">
-        <v>3889.283315426963</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G46" t="n">
-        <v>3721.107993746784</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576117</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.859459491669</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281175</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U46" t="n">
-        <v>4326.074044281175</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V46" t="n">
-        <v>4326.074044281175</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W46" t="n">
-        <v>4326.074044281175</v>
+        <v>4703.441852209008</v>
       </c>
       <c r="X46" t="n">
-        <v>4326.074044281175</v>
+        <v>4475.452301310991</v>
       </c>
       <c r="Y46" t="n">
-        <v>4105.281465137645</v>
+        <v>4254.659722167461</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.6241510367958</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>124.6622522057418</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,19 +9722,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>71.96182378370003</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>419.9098036020024</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10671,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>369.9060195594317</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>251.3732221796676</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891823</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>136.110280028431</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>128.4694717822516</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>108.8451328388535</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24178,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>99.23385149845824</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>130.6844047393601</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>10.65497486614709</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>87.77261239840709</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>47.24130101521254</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>133.5789023442189</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>115.5623585656776</v>
+        <v>8.047662122042965</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>5.08475441574916</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>77.06777566241342</v>
+        <v>7.625486225278181</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.797492829142385</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>123.7090584877513</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>78.01684245592571</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26083,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>130.6844047393597</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852507</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="L2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="M2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="N2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="O2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="P2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26426,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758692</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26478,16 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,13 +26496,13 @@
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400031</v>
+        <v>-319261.0345400033</v>
       </c>
       <c r="C6" t="n">
         <v>270706.8446745413</v>
@@ -26528,40 +26530,40 @@
         <v>270706.8446745413</v>
       </c>
       <c r="E6" t="n">
-        <v>-148700.2844309376</v>
+        <v>-148700.2844309382</v>
       </c>
       <c r="F6" t="n">
-        <v>376459.7520459581</v>
+        <v>376459.752045958</v>
       </c>
       <c r="G6" t="n">
-        <v>376459.7520459581</v>
+        <v>376459.752045958</v>
       </c>
       <c r="H6" t="n">
-        <v>376459.7520459578</v>
+        <v>376459.752045958</v>
       </c>
       <c r="I6" t="n">
         <v>376459.752045958</v>
       </c>
       <c r="J6" t="n">
-        <v>200036.5328533649</v>
+        <v>200036.5328533653</v>
       </c>
       <c r="K6" t="n">
-        <v>376459.7520459578</v>
+        <v>376459.7520459577</v>
       </c>
       <c r="L6" t="n">
-        <v>376459.7520459579</v>
+        <v>376459.752045958</v>
       </c>
       <c r="M6" t="n">
-        <v>241658.7368121209</v>
+        <v>241658.7368121205</v>
       </c>
       <c r="N6" t="n">
-        <v>376459.7520459579</v>
+        <v>376459.752045958</v>
       </c>
       <c r="O6" t="n">
+        <v>376459.7520459581</v>
+      </c>
+      <c r="P6" t="n">
         <v>376459.752045958</v>
-      </c>
-      <c r="P6" t="n">
-        <v>376459.7520459578</v>
       </c>
     </row>
   </sheetData>
@@ -26738,28 +26740,28 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>319.6258132655379</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>221.3590373648551</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27585,7 +27587,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>85.13796015517593</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>171.0077397360849</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>337.0092003950824</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>95.27892931145841</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>236.892294985941</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>65.52911452950161</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.562085760853</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>282.371944485078</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>89.28950241229568</v>
       </c>
       <c r="S10" t="n">
-        <v>139.487601175384</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31145,7 +31147,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>111.7343803072865</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,31 +31375,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516336</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31613,28 +31615,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>426.4393393377441</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>222.6161509526143</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>274.5684716790597</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>422.5048249102228</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,19 +32551,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>196.2798364078228</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32573,13 +32575,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,25 +32791,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>394.9841349460407</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32938,46 +32940,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,43 +33019,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>48.48571443651733</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>144.9582424701699</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,22 +33265,22 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>285.0631269188133</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33497,28 +33499,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>239.2136969488974</v>
       </c>
       <c r="O33" t="n">
-        <v>234.7570492033809</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33734,25 +33736,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>154.232862741864</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,19 +33982,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>168.9387261055273</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>132.9641548111422</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34232,7 +34234,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34445,13 +34447,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>54.6967899881127</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34463,10 +34465,10 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>774.4400015979643</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.6371838218699</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>84.06177117274014</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>622.5691339392799</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594833</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>435.0866292562079</v>
+        <v>280.3707909882045</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9036344460424</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>742.984797206261</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>354.3255260248081</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>175.1095124747369</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>215.0537561199975</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>753.1043770000152</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>151.0887195044831</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>107.8719848655641</v>
       </c>
       <c r="O33" t="n">
-        <v>486.0231240356659</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>386.518828265449</v>
       </c>
       <c r="M36" t="n">
-        <v>680.3303966098979</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>492.5097559335089</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>6.126528144475465</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>286.9827555116977</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1828003.467346192</v>
+        <v>1820986.452454481</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1675377.472924252</v>
+        <v>694489.3304904767</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.10802839794265</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>402.88221024342</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494254</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>54.18126457258115</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>127.007578794843</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>332.8153673247218</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>121.1693910461994</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.0555388225932</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>183.2949708053966</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>41.55082827927919</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>57.37568956786215</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.72170015350625</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>122.313709559931</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>54.75393801966536</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>15.74955790720909</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>57.58328081410408</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.5906791667248</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>105.9570965582777</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>213.4998989363463</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>25.82923535834103</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3556,10 +3556,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>102.7937592389938</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>183.1796758466964</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520984</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>43.53776261087656</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>142.4312553669869</v>
       </c>
     </row>
     <row r="44">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>155.8385935972313</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>997.2466063457016</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>628.2840894052899</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>628.2840894052899</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>628.2840894052899</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4345,37 +4345,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
@@ -4427,25 +4427,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>323.3278565882119</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>323.3278565882119</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,7 +4497,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
         <v>529.6040388502502</v>
@@ -4506,34 +4506,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4215814289018</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T4" t="n">
-        <v>570.4215814289018</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U4" t="n">
-        <v>281.2479710834698</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V4" t="n">
-        <v>281.2479710834698</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="W4" t="n">
-        <v>281.2479710834698</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="X4" t="n">
-        <v>281.2479710834698</v>
+        <v>473.4444960005477</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.2479710834698</v>
+        <v>473.4444960005477</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2343.549589573795</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2089.787804211887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2089.787804211887</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1737.019148941773</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1363.553390680693</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.553390680693</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>391.878965009939</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>573.5274298401787</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1310.651480925463</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C8" t="n">
-        <v>1310.651480925463</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D8" t="n">
-        <v>1310.651480925463</v>
+        <v>406.4787970436502</v>
       </c>
       <c r="E8" t="n">
-        <v>924.8632283272186</v>
+        <v>406.4787970436502</v>
       </c>
       <c r="F8" t="n">
-        <v>513.8773235376111</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>95.91351543579799</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520779</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2070.717079250664</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1697.251320989585</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1697.251320989585</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.489254012808</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>415.489254012808</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>415.489254012808</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>670.1737422186949</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>670.1737422186949</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>670.1737422186949</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>670.1737422186949</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5035,22 +5035,22 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5123,22 +5123,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.839867667473</v>
+        <v>334.2881267578673</v>
       </c>
       <c r="N12" t="n">
-        <v>2371.535469249458</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5226,22 +5226,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
         <v>97.21709146028584</v>
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7081686256434</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>221.9293220866562</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>542.2646416163579</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>531.109187020113</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>531.109187020113</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>310.3166078765829</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,13 +5752,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.1367719529251</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1375.367068982215</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1086.238430195773</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>831.5539419898857</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W22" t="n">
-        <v>542.1367719529251</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X22" t="n">
-        <v>542.1367719529251</v>
+        <v>877.929660728721</v>
       </c>
       <c r="Y22" t="n">
-        <v>542.1367719529251</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6074,19 +6074,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>674.4285624571609</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1442.796708849622</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>1772.659336513655</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3941.006808105545</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>3772.070625177638</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>3621.953985765302</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>3606.045341414586</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014292</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W25" t="n">
-        <v>4571.437402977332</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X25" t="n">
-        <v>4343.447852079315</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y25" t="n">
-        <v>4122.655272935785</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="26">
@@ -6223,16 +6223,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,16 +6244,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>436.8967109626377</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6411,10 +6411,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
         <v>869.3083006011506</v>
@@ -6426,10 +6426,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,28 +6442,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6481,31 +6481,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>2107.322705390779</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2386.862770609477</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1275.130855347408</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.130855347408</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>1275.130855347408</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.130855347408</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="32">
@@ -6697,16 +6697,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6736,7 +6736,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126481</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>263.5382936126481</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1031.90644000511</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4334.202995919602</v>
+        <v>523.5986531011361</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919602</v>
+        <v>354.6624701732292</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507267</v>
+        <v>354.6624701732292</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924874</v>
+        <v>354.6624701732292</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426963</v>
+        <v>354.6624701732292</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>354.6624701732292</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>204.2444617211725</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576117</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.859459491669</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4334.202995919602</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>4334.202995919602</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>4334.202995919602</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W34" t="n">
-        <v>4334.202995919602</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X34" t="n">
-        <v>4334.202995919602</v>
+        <v>705.2471179313758</v>
       </c>
       <c r="Y34" t="n">
-        <v>4334.202995919602</v>
+        <v>705.2471179313758</v>
       </c>
     </row>
     <row r="35">
@@ -6946,19 +6946,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>264.0657286834809</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>646.7193686662754</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>967.0546881959772</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.466266460128</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028587</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,19 +7192,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.357857465301</v>
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>688.5786845598166</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>519.6425016319097</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>519.6425016319097</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>519.6425016319097</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>519.6425016319097</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>351.4671799517303</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>201.0491714996735</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>1090.100879744685</v>
       </c>
       <c r="V40" t="n">
-        <v>909.3712637033467</v>
+        <v>835.4163915387976</v>
       </c>
       <c r="W40" t="n">
-        <v>909.3712637033467</v>
+        <v>545.9992215018369</v>
       </c>
       <c r="X40" t="n">
-        <v>909.3712637033467</v>
+        <v>318.0096706038195</v>
       </c>
       <c r="Y40" t="n">
-        <v>688.5786845598166</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7414,22 +7414,22 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164471</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.242231453998</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
         <v>359.1696912903951</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W43" t="n">
-        <v>1244.231782352015</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X43" t="n">
-        <v>1016.242231453998</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y43" t="n">
-        <v>1016.242231453998</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,19 +7660,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095316</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>3158.47475800178</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>3465.794891281741</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>3795.657518945774</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>4075.197584164471</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698578</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4073.011257337222</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>3904.075074409315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>3753.958434996979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>3606.045341414586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>4860.854573014292</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>4703.441852209008</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>4475.452301310991</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>4254.659722167461</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>148.2056261846776</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9485,25 +9485,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>71.96182378370003</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11144,22 +11144,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776745</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776745</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.110280028431</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>99.23385149845824</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>170.9557173693718</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>130.6844047393601</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>168.1263745749331</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.24130101521254</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4.462148905994255</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>8.047662122042965</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>199.8804200306961</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>7.625486225278181</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518809</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>123.7090584877513</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>76.15339798510789</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>130.6844047393597</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="F2" t="n">
         <v>469234.8716852504</v>
@@ -26334,25 +26334,25 @@
         <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852504</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758694</v>
@@ -26456,10 +26456,10 @@
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400033</v>
+        <v>-319261.0345400035</v>
       </c>
       <c r="C6" t="n">
         <v>270706.8446745413</v>
       </c>
       <c r="D6" t="n">
-        <v>270706.8446745413</v>
+        <v>270706.8446745411</v>
       </c>
       <c r="E6" t="n">
-        <v>-148700.2844309382</v>
+        <v>-149674.8756906601</v>
       </c>
       <c r="F6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862362</v>
       </c>
       <c r="G6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862364</v>
       </c>
       <c r="H6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862363</v>
       </c>
       <c r="I6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862362</v>
       </c>
       <c r="J6" t="n">
-        <v>200036.5328533653</v>
+        <v>199061.9415936432</v>
       </c>
       <c r="K6" t="n">
-        <v>376459.7520459577</v>
+        <v>375485.1607862362</v>
       </c>
       <c r="L6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862363</v>
       </c>
       <c r="M6" t="n">
-        <v>241658.7368121205</v>
+        <v>240684.145552399</v>
       </c>
       <c r="N6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862364</v>
       </c>
       <c r="O6" t="n">
-        <v>376459.7520459581</v>
+        <v>375485.1607862362</v>
       </c>
       <c r="P6" t="n">
-        <v>376459.752045958</v>
+        <v>375485.1607862363</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,13 +26755,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>319.6258132655379</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.993835498291446</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>91.2397834503501</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>85.13796015517593</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>74.06067841698962</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>95.27892931145841</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>150.3569555942787</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>65.52911452950161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>223.5810749363148</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>282.371944485078</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>89.28950241229568</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30449,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.978284985371015e-12</v>
       </c>
     </row>
     <row r="41">
@@ -31047,7 +31047,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31056,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,40 +31120,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31162,7 +31162,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31369,7 +31369,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31381,7 +31381,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>149.8971812516336</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653279</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,37 +31840,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>112.8418941815596</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>426.4393393377441</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32077,19 +32077,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>222.6161509526143</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,19 +32323,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>422.5048249102228</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,16 +32481,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O20" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,28 +32560,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,22 +32794,22 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32940,46 +32940,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,43 +33019,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>48.48571443651733</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481346</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,43 +33101,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33274,16 +33274,16 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>285.0631269188133</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33502,25 +33502,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>239.2136969488974</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565529</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33739,25 +33739,25 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>154.232862741864</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33985,16 +33985,16 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34152,7 +34152,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
@@ -34222,16 +34222,16 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34392,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34459,16 +34459,16 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>239.4656922197792</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>774.4400015979643</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>84.06177117274014</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>16.86391410134428</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
@@ -35746,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>280.3707909882045</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O24" t="n">
-        <v>354.3255260248081</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>175.1095124747369</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594833</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415662</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>151.0887195044831</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>107.8719848655641</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>386.518828265449</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37864,22 +37864,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091992</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1820986.452454481</v>
+        <v>1825925.715303514</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>694489.3304904767</v>
+        <v>667590.6923221208</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>402.88221024342</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>27.77238941128203</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494254</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.18126457258115</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>94.65568569260614</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>138.3295234829028</v>
       </c>
       <c r="F5" t="n">
-        <v>332.8153673247218</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>183.2949708053966</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>17.8964813234758</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>47.20011114811202</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>24.01153903325445</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>161.4281071687525</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>206.806426921486</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>54.75393801966536</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>188.1607094910709</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>57.58328081410408</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>115.8723908590274</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>23.54872654977478</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.9570965582777</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>73.20819353839232</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>25.82923535834103</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>73.628099082902</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>183.1796758466964</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>142.4312553669869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002176</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>997.2466063457016</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>628.2840894052899</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>628.2840894052899</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>628.2840894052899</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4345,37 +4345,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990286</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646715</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W2" t="n">
-        <v>2147.451536646715</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X2" t="n">
-        <v>1773.985778385635</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y2" t="n">
-        <v>1383.846446409823</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
@@ -4430,22 +4430,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005477</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C4" t="n">
-        <v>473.4444960005477</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>323.3278565882119</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>323.3278565882119</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148976</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323009</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323009</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064346</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064346</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064346</v>
+        <v>2601.537287288317</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064346</v>
+        <v>2601.537287288317</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005477</v>
+        <v>2601.537287288317</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005477</v>
+        <v>2601.537287288317</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005477</v>
+        <v>2373.5477363903</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005477</v>
+        <v>2373.5477363903</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340179</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C5" t="n">
-        <v>808.0839286340179</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="D5" t="n">
-        <v>808.0839286340179</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="E5" t="n">
-        <v>808.0839286340179</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.68376869814</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>764.7444956504007</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C8" t="n">
-        <v>764.7444956504007</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>406.4787970436502</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>406.4787970436502</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2679.071837156126</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2502.894349470296</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2502.894349470296</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2249.132564108387</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1918.069676764816</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1565.301021494702</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504007</v>
+        <v>1191.835263233623</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,13 +4883,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5108,7 +5108,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>334.2881267578673</v>
+        <v>283.7630599257583</v>
       </c>
       <c r="L12" t="n">
-        <v>334.2881267578673</v>
+        <v>897.6601296826472</v>
       </c>
       <c r="M12" t="n">
-        <v>334.2881267578673</v>
+        <v>897.6601296826472</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.699705022018</v>
+        <v>1702.071707946798</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181199</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181199</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>291.7839189057842</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609673</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550805</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>441.9005583181199</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>441.9005583181199</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181199</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>121.471171291856</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>121.471171291856</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>121.471171291856</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>121.471171291856</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>121.471171291856</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>121.471171291856</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,19 +5582,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K18" t="n">
         <v>508.1073603047985</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>576.3642008327093</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>758.0126656629491</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2366688293931</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>933.2366688293931</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>877.929660728721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>877.929660728721</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6031,10 +6031,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1308.854947839649</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227918</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V25" t="n">
-        <v>874.9271131227918</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W25" t="n">
-        <v>585.5099430858311</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X25" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M27" t="n">
         <v>2056.693778606511</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6426,10 +6426,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6460,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M30" t="n">
         <v>2056.693778606511</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.99626047345</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262956</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.210845262956</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>820.526357057069</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>531.1091870201085</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9038434870658</v>
+        <v>414.0663679705858</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,28 +6685,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6742,10 +6742,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>523.5986531011361</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="C34" t="n">
-        <v>354.6624701732292</v>
+        <v>121.0036839348058</v>
       </c>
       <c r="D34" t="n">
-        <v>354.6624701732292</v>
+        <v>121.0036839348058</v>
       </c>
       <c r="E34" t="n">
-        <v>354.6624701732292</v>
+        <v>121.0036839348058</v>
       </c>
       <c r="F34" t="n">
-        <v>354.6624701732292</v>
+        <v>121.0036839348058</v>
       </c>
       <c r="G34" t="n">
-        <v>354.6624701732292</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>204.2444617211725</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>933.2366688293931</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>933.2366688293931</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X34" t="n">
-        <v>705.2471179313758</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y34" t="n">
-        <v>705.2471179313758</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>415.8104215925219</v>
+        <v>896.5552164996849</v>
       </c>
       <c r="C37" t="n">
-        <v>415.8104215925219</v>
+        <v>727.619033571778</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>577.5023941594422</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>429.5893005770491</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>282.6993530791387</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>282.6993530791387</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X37" t="n">
-        <v>415.8104215925219</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y37" t="n">
-        <v>415.8104215925219</v>
+        <v>1078.203681329925</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,25 +7241,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
         <v>2056.693778606511</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1424.544453302446</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1424.544453302446</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1200.759038091952</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744685</v>
+        <v>911.6303993055099</v>
       </c>
       <c r="V40" t="n">
-        <v>835.4163915387976</v>
+        <v>911.6303993055099</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018369</v>
+        <v>622.2132292685493</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038195</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>731.0291971045608</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,10 +7724,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
         <v>508.1073603047985</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598087</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -9266,7 +9266,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.23385149845714</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>124.9022893342817</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43092547709136</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>5.818713929875372</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>170.9557173693718</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>33.38685156731836</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>168.1263745749331</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>109.8372645300097</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>142.9448419136028</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>4.462148905994255</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>75.7056348291438</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>199.8804200306961</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>36.3362533208908</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>103.0576765518809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>76.15339798510789</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338567</v>
+        <v>192.8130786476576</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967306</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899366.8373967308</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967304</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899366.8373967306</v>
+        <v>899366.8373967307</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899366.8373967307</v>
+        <v>899366.8373967308</v>
       </c>
     </row>
     <row r="15">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852502</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>469234.8716852505</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="L2" t="n">
         <v>469234.8716852504</v>
@@ -26352,7 +26352,7 @@
         <v>469234.8716852504</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
         <v>469234.8716852504</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
@@ -26435,16 +26435,16 @@
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758694</v>
@@ -26456,7 +26456,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319261.0345400035</v>
+        <v>-319261.0345400032</v>
       </c>
       <c r="C6" t="n">
         <v>270706.8446745413</v>
       </c>
       <c r="D6" t="n">
-        <v>270706.8446745411</v>
+        <v>270706.8446745413</v>
       </c>
       <c r="E6" t="n">
-        <v>-149674.8756906601</v>
+        <v>-148797.7435569111</v>
       </c>
       <c r="F6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199862</v>
       </c>
       <c r="G6" t="n">
-        <v>375485.1607862364</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="H6" t="n">
-        <v>375485.1607862363</v>
+        <v>376362.2929199859</v>
       </c>
       <c r="I6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199857</v>
       </c>
       <c r="J6" t="n">
-        <v>199061.9415936432</v>
+        <v>199939.0737273929</v>
       </c>
       <c r="K6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199858</v>
       </c>
       <c r="L6" t="n">
-        <v>375485.1607862363</v>
+        <v>376362.2929199858</v>
       </c>
       <c r="M6" t="n">
-        <v>240684.145552399</v>
+        <v>241561.2776861484</v>
       </c>
       <c r="N6" t="n">
-        <v>375485.1607862364</v>
+        <v>376362.2929199858</v>
       </c>
       <c r="O6" t="n">
-        <v>375485.1607862362</v>
+        <v>376362.2929199858</v>
       </c>
       <c r="P6" t="n">
-        <v>375485.1607862363</v>
+        <v>376362.2929199857</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.993835498291446</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>223.4517780970073</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>91.2397834503501</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27590,19 +27590,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3794197654781</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>243.600846589359</v>
       </c>
       <c r="F5" t="n">
-        <v>74.06067841698962</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>150.3569555942787</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>223.5810749363148</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>36.58192125133591</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-2.147365782211761e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30449,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.978284985371015e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -31047,7 +31047,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31056,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,31 +31120,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
@@ -31153,7 +31153,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31162,7 +31162,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653279</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>112.8418941815596</v>
+        <v>61.80647313902526</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32338,7 +32338,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32484,7 +32484,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927192</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
         <v>562.4526372540886</v>
@@ -32575,7 +32575,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32970,7 +32970,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33918,7 +33918,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -34152,7 +34152,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
@@ -34389,10 +34389,10 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>239.4656922197792</v>
+        <v>188.4302711772449</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415667</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37007,7 +37007,7 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006117963</v>
       </c>
       <c r="Q31" t="n">
         <v>39.22569997187475</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
